--- a/data/case1/13/V2_13.xlsx
+++ b/data/case1/13/V2_13.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999998874868212</v>
+        <v>0.99999998969518844</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99881158775154499</v>
+        <v>0.99924244051094935</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.99599691124582612</v>
+        <v>0.99844862777366206</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9997751347369066</v>
+        <v>1.0037340671260342</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.990429820427559</v>
+        <v>0.99595523261256202</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.9709004735502802</v>
+        <v>0.97948246301338859</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.96912433144544541</v>
+        <v>0.97808956863881791</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.96335064283669314</v>
+        <v>0.97570164216292243</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.95924224052107432</v>
+        <v>0.9760879567701668</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.95605079792432979</v>
+        <v>0.97742931276151235</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.95536880341974362</v>
+        <v>0.97766999223228845</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.95508979955609052</v>
+        <v>0.97838523294538193</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.95443723041362838</v>
+        <v>0.96541393570186274</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.95454152542336779</v>
+        <v>0.96155575153418726</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.95628452562534005</v>
+        <v>0.95851736445663538</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.95910026722245778</v>
+        <v>0.9550823008375906</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.96559319497147311</v>
+        <v>0.95137481787046818</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.96977588657670943</v>
+        <v>0.95026594657892449</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99775848092945729</v>
+        <v>0.99840474237769306</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.99064185796799076</v>
+        <v>0.99313090178385699</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98924343684219918</v>
+        <v>0.99173246876846932</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98797894925569629</v>
+        <v>0.99046797959267407</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.98896302246039203</v>
+        <v>0.99141488981521886</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.97594305691747674</v>
+        <v>0.97839508059360836</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.96948622851996547</v>
+        <v>0.97193827748871664</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.96859682428032046</v>
+        <v>0.97704693499903517</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.96563412865084453</v>
+        <v>0.97390020125230936</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.95525346787192444</v>
+        <v>0.96285052984369146</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.94820737482215378</v>
+        <v>0.95530379202189386</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.94487009652268572</v>
+        <v>0.95164712637132087</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.94828937095673216</v>
+        <v>0.95447376803280914</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.95072400847508876</v>
+        <v>0.9534647350178167</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.95020401408577548</v>
+        <v>0.95294473926610257</v>
       </c>
     </row>
   </sheetData>
